--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shihu\Desktop\Shi Hui Laptop\Koh Shi Hui (Comp)\NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF10C655-3F36-4032-AA5C-51F52239663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621351FB-3ABA-4A35-9C75-6CE7FFA11BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28E2A4DA-F468-4597-8837-D3F0CCB1566E}"/>
   </bookViews>
@@ -305,11 +305,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C53681-E9CA-4109-AB6D-54EE994DA728}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +642,8 @@
     <col min="4" max="4" width="67.109375" customWidth="1"/>
     <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="88.21875" customWidth="1"/>
-    <col min="7" max="8" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
     <col min="9" max="9" width="26.109375" customWidth="1"/>
     <col min="11" max="11" width="11.77734375" customWidth="1"/>
     <col min="12" max="12" width="18.5546875" customWidth="1"/>
@@ -649,62 +653,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
       </c>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1021,6 +1041,24 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
